--- a/RIcerca_e_citazioni/Ricerca dell'arte.xlsx
+++ b/RIcerca_e_citazioni/Ricerca dell'arte.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriele\Monitor\Desktop\TESI\RIcerca_e_citazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EFE735-B86D-4E06-86DE-99027D4B79CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A0DE48-12F5-4EA9-AF15-06F9323DD4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{1DBE052A-2A2F-42A7-95AF-1B1410054FFA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Stato e ricerca dell'arte- Articoli Scientifici sull'orientamento professionale</t>
   </si>
@@ -66,38 +66,9 @@
     <t>Career Coaching: Developing a Constructive Mindset and Ethical Conduct in the Realm of Employment from a Young Age(2024)</t>
   </si>
   <si>
-    <t>L'articolo analizza l'importanza del career coaching per sviluppare atteggiamenti e comportamenti positivi nel lavoro fin dall'università, in preparazione all'era 4.0. Attraverso attività pratiche e formative, il programma ha coinvolto 63 studenti universitari, migliorando il 95,3% delle loro competenze. L'iniziativa evidenzia l'impatto di tali competenze sul successo aziendale e personale.</t>
-  </si>
-  <si>
     <t>L'app deve basarsi sui principi del career coaching per aiutare l'utente a identificare e sviluppare il lavoro ideale, migliorando così le sue capacità decisionali e la sua efficienza, con un impatto positivo sul rendimento aziendale.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">L'articolo mira a creare un modello di </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>career coaching accademico</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> che integri le aspirazioni personali e le dinamiche organizzative, al fine di supportare i nuovi dottori di ricerca nella loro crescita professionale e migliorare le prestazioni complessive delle università.</t>
-    </r>
-  </si>
-  <si>
     <t>Developing an Academic Career Development Coaching Model for New Doctorates Performance</t>
   </si>
   <si>
@@ -108,22 +79,83 @@
   </si>
   <si>
     <t>https://myjms.mohe.gov.my/index.php/ajress/article/view/28128</t>
+  </si>
+  <si>
+    <t>L'articolo analizza l'importanza del career coaching per sviluppare atteggiamenti e comportamenti positivi nel lavoro fin dall'università. Attraverso attività pratiche e formative, il programma ha coinvolto 63 studenti universitari, migliorando il 95,3% delle loro competenze. L'iniziativa evidenzia l'impatto di tali competenze sul successo aziendale e personale.</t>
+  </si>
+  <si>
+    <t>Mironov Aleksei Gennadievich</t>
+  </si>
+  <si>
+    <t>http://www.kgau.ru/new/all/science/04/content3/54.pdf#page=11</t>
+  </si>
+  <si>
+    <t>L'applicazione deve essere pensata da raggiungere qualsiasi target di giovani  evidenzando l'importanza del career coaching in merito al raggiungimento degli obbiettivi personali tramite delle tecniche progettive dando una migliore visione della vita lavorativa</t>
+  </si>
+  <si>
+    <t>Coaching in Career Guidance</t>
+  </si>
+  <si>
+    <t>L'articolo mira a creare un modello di career coaching accademico che integri le aspirazioni personali e le dinamiche organizzative, al fine di supportare i nuovi dottori di ricerca nella loro crescita professionale e migliorare le prestazioni complessive delle università.</t>
+  </si>
+  <si>
+    <t>L'articolo analizza il coaching come strumento psicologico e pedagogico per migliorare l'orientamento professionale degli studenti sia universitari e non. Il coaching,  attraverso tecniche progettive e la programmazione visivo-cinestesica,aiuta i giovani a prendere decisioni consapevoli sulla carriera aiutandoli a esplorare più a fondo le loro aspirazioni e a trovare motivazione per raggiungere i loro obiettivi.</t>
+  </si>
+  <si>
+    <t>Back to the Basics: Career Counseling</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/pdf/10.1002/ss.20107</t>
+  </si>
+  <si>
+    <t>Keri Carter Pipkins, Gail S. Rooney, Imants Jaunarajs</t>
+  </si>
+  <si>
+    <t>L'articolo evidenzia l'importanza del Career Counseling come intervento chiave nello sviluppo professionale degli studenti, esso propone un modello di formazione continua, basato su una "comunità di pratica" che favorisca collaborazione e aggiornamento costante per migliorare le competenze dei professionisti e garantire un supporto efficace agli studenti per tutta la loro vita lavorativa.</t>
+  </si>
+  <si>
+    <t>L'applicazione non deve solo basarsi sul career coaching ma anche essere in grado di fornire anche il career counseling, ossia esplorare le capacità di uno studente per poi andare a definire una completa pianificazione della carriera</t>
+  </si>
+  <si>
+    <t>Study on Application of Coaching to College Students’ Career Development and Employment Guidance Course</t>
+  </si>
+  <si>
+    <t>Jing Zhang</t>
+  </si>
+  <si>
+    <t>https://www.semanticscholar.org/paper/Study-on-Application-of-Coaching-to-College-Career-Zhang/fc761833e8fae00e914b063f798ebe2527fbd651</t>
+  </si>
+  <si>
+    <t>L'articolo tratta di uno studio svolto in quattro fasi mirato ad allo sviluppo del potenziale individuale e sul miglioramento sulle prestazioni di studenti universitari. La prima parte si focalizza sulla pianificazione, la seconda sull'affiancamento di un coach esperto, la terza promuove le attività di coaching attraverso piattaforma di network e infine il quarto stadio che si basa sulle attività tecniche del coach</t>
+  </si>
+  <si>
+    <t>Per aiutare l'utente si possono inserire strumenti di autovalutazione per stabilire al meglio i loro obiettivi di carriera per una pianificazione ottimale o in aggiunta l'inserimento di corsi di formazione per un preciso argomento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questo articolo definisce il coaching nell'educazione medica, evidenziando la differenza rispetto al mentoring e advising, e propone un quadro concettuale basato su una revisione della letteratura. Viene descritto un processo di coaching in quattro fasi: stabilire principi relazionali, condurre valutazioni, sviluppare un piano d'azione e monitorare i risultati. </t>
+  </si>
+  <si>
+    <t>L'applicazione può fornire delle valutazioni approssimative delle competenze inserite dall'utente evidenziando le affinità con il lavoro ideale</t>
+  </si>
+  <si>
+    <t>Coaching: a new model for academic and career achievement</t>
+  </si>
+  <si>
+    <t>N. Deiorio, P. Carney, L. Kahl, Erin M Bonura, Amy Miller Juve</t>
+  </si>
+  <si>
+    <t>https://www.semanticscholar.org/paper/Coaching%3A-a-new-model-for-academic-and-career-Deiorio-Carney/246e152291c627db497c163e0f2a87f4ea9b5c14</t>
+  </si>
+  <si>
+    <t>più parole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -154,9 +186,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF2E3743"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Georgia"/>
       <family val="1"/>
     </font>
@@ -164,9 +210,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF2E3743"/>
+      <name val="Georgia"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -200,38 +252,55 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -705,14 +774,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFCD212-F8ED-49CA-8122-2D45BEF6C20B}">
-  <dimension ref="A1"/>
+  <dimension ref="R5:R6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="6" spans="18:18" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -720,228 +800,333 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8858C0-6DFD-4B7A-8BEC-91283065E68F}">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.7109375" customWidth="1"/>
-    <col min="4" max="4" width="74.140625" customWidth="1"/>
-    <col min="5" max="5" width="48.140625" customWidth="1"/>
+    <col min="1" max="5" width="45.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
     </row>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -951,8 +1136,12 @@
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{CC0F7472-D2DD-484D-8216-07C34383310F}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{0AE915D4-D7C2-4562-865E-603E0BFB71EC}"/>
+    <hyperlink ref="E5" r:id="rId3" location="page=11" xr:uid="{B525FE93-A1D2-452E-B24D-9DD92E983248}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{183778F0-859D-4901-B02D-B137F164E008}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{C4E12C26-FBDB-41BC-9DFB-DA4C354E8C52}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{1BD7F6EB-81FA-472A-8CBB-F99C2719828F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/RIcerca_e_citazioni/Ricerca dell'arte.xlsx
+++ b/RIcerca_e_citazioni/Ricerca dell'arte.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriele\Monitor\Desktop\TESI\RIcerca_e_citazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A0DE48-12F5-4EA9-AF15-06F9323DD4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CCDE95-1D0A-4369-876F-8D0F8CC2DBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{1DBE052A-2A2F-42A7-95AF-1B1410054FFA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{1DBE052A-2A2F-42A7-95AF-1B1410054FFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Google Trends" sheetId="1" r:id="rId1"/>
     <sheet name="Articoli Scientifici" sheetId="2" r:id="rId2"/>
+    <sheet name="App Simili" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>Stato e ricerca dell'arte- Articoli Scientifici sull'orientamento professionale</t>
   </si>
@@ -147,14 +148,50 @@
     <t>https://www.semanticscholar.org/paper/Coaching%3A-a-new-model-for-academic-and-career-Deiorio-Carney/246e152291c627db497c163e0f2a87f4ea9b5c14</t>
   </si>
   <si>
-    <t>più parole</t>
+    <t>ITALIA</t>
+  </si>
+  <si>
+    <t>MONDO</t>
+  </si>
+  <si>
+    <t>Student Career Guidance Using Generative AI</t>
+  </si>
+  <si>
+    <t>Rahul Waikar, Shraddhesh Tamhane, Tanmai Tale, Rujul Talekar, Ayush Tangde, Tanish Singla, Tanishka Kalokhe</t>
+  </si>
+  <si>
+    <t>Questa applicazione web utilizza l'IA generativa per fornire orientamento professionale personalizzato agli studenti, basandosi su interessi, competenze e aspettative. Superando i limiti del counseling tradizionale, l' IA analizza dati  come il livello scolastico, la carriera desiderata, le abilità o gli hobby dell'utente, fornendo suggerimenti su carriere, università e prospettive di reddito.</t>
+  </si>
+  <si>
+    <t>L'applicazione può seguire il loro modello di flowchart, elavorando inizialmente i dati fondamentali dell'utente e  strutturandoli in un formato organizzato.Successivamente questi dati vendono rielaborati per fornire informazioni aggiuntive, come le prospettive di reddito o i titoli di studio richiesti per un determinato lavoro</t>
+  </si>
+  <si>
+    <t>Possibile flowchart di riferimento</t>
+  </si>
+  <si>
+    <t>https://www.semanticscholar.org/paper/Student-Career-Guidance-Using-Generative-AI-Waikar-Tamhane/924742fb78c0cafb2b1f9e0f992e596328f9aaaa</t>
+  </si>
+  <si>
+    <t>Testing the combined effects of the PAX Good Behavior Game and MyTeachingPartner™ coaching for early career teachers: Impacts on teacher-student interaction quality and teachers' occupational health</t>
+  </si>
+  <si>
+    <t>Jason T Downer, Summer S. Braun, Catherine P. Bradshaw, Lauren Molloy Elreda, Xavier Elzie, Alexa C. Budavari, Nicholas S Ialongo, Patrick H. Tolan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo studio ha testato un intervento per aiutare i docenti alle prime esperienze a gestire la classe. I risultati mostrano una riduzione dello stress e un miglioramento delle interazioni con gli studenti con un maggiore senso di appartenenza alla professione. Gli effetti sono più evidenti nei docenti inizialmente più stressati e con classi difficili. </t>
+  </si>
+  <si>
+    <t>Per guidare al meglio l'utente dal punto di vista lavorativo si potrebbe adottare un approccio che includa sia cosa fare che come farlo, migliorando così l'esperienza pratica dell'utente</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0022440524000797?via%3Dihub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +257,27 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -254,7 +312,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -302,6 +360,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -325,22 +395,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>89645</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>332114</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>161502</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>527435</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>41411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Immagine 1">
+        <xdr:cNvPr id="3" name="Immagine 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{562CBA6C-867B-C5E8-2271-62CB92A38F7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4C49A7-CD9C-A101-58BA-F752413DECCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -356,8 +426,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="400050"/>
-          <a:ext cx="10085714" cy="3380952"/>
+          <a:off x="89645" y="168087"/>
+          <a:ext cx="2858261" cy="400000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -369,22 +439,552 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>78438</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>560581</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Immagine 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BAC1666-5DBA-CCF6-8371-5BB43E99FD54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="982" b="2367"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="78438" y="593911"/>
+          <a:ext cx="10164025" cy="3697942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123259</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438155</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>65694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Immagine 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0D68E9-C3EA-57D8-F880-235EA89C8304}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="1010" t="1662"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123259" y="4370294"/>
+          <a:ext cx="8786543" cy="3315400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>280148</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>29545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>179929</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67259</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Immagine 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1081E8C8-165D-06BC-9D4C-08FD250E3FAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11190603" y="4930590"/>
+          <a:ext cx="8385690" cy="3085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>337196</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>382045</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Immagine 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B723F57-7DE6-CA56-4C98-D1648A7606F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11247651" y="776264"/>
+          <a:ext cx="10955303" cy="4107463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>407490</xdr:colOff>
       <xdr:row>0</xdr:row>
+      <xdr:rowOff>93725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>250609</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>60108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Immagine 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70055E47-3D9F-32B0-E9AD-23E190BE8456}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect t="18667" r="8897"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11317945" y="93725"/>
+          <a:ext cx="2873800" cy="676428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>103908</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>559693</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Immagine 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E526D31B-BD58-8B1A-E2CE-2BFA4A5DF80C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="103908" y="8364681"/>
+          <a:ext cx="10153967" cy="3221182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>273413</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>91422</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Immagine 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3958D345-EF00-96A6-F01A-5200CA9FC34B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="121227" y="11603181"/>
+          <a:ext cx="8638095" cy="2914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>437790</xdr:colOff>
+      <xdr:colOff>580665</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>206699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Immagine 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D743068-AE22-4CDB-A1DA-C5A22612AB6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="7953375"/>
+          <a:ext cx="2876190" cy="397199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>600730</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>184078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Immagine 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11E57F0-00A3-F83C-0EB1-43DE4E6E59DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11378046" y="9126682"/>
+          <a:ext cx="8619048" cy="2885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>519545</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>162944</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>175669</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Immagine 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17BBA00-12CB-E486-FC22-7941A8C386BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="8191500"/>
+          <a:ext cx="5704762" cy="885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>203241</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>45461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Immagine 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C96F501-853B-2451-34F5-65DD97B6B9BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11291455" y="12036136"/>
+          <a:ext cx="8914286" cy="3457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138544</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>19000</xdr:rowOff>
+      <xdr:rowOff>1004454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>813263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Immagine 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D61EE1-BA84-E0E3-B643-8E3A3911964B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18495817" y="1575954"/>
+          <a:ext cx="6650183" cy="5523809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173180</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>813954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1030972</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Immagine 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4C49A7-CD9C-A101-58BA-F752413DECCB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E7398A-174A-A8C4-F5C9-9218E0C2A40D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -400,52 +1000,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2876190" cy="400000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>541714</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>9055</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Immagine 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E18DE3C2-A64C-E73B-82CD-F6CD6D723B1C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="3867150"/>
-          <a:ext cx="9685714" cy="3761905"/>
+          <a:off x="18530453" y="7100454"/>
+          <a:ext cx="6563592" cy="4027018"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -774,25 +1330,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFCD212-F8ED-49CA-8122-2D45BEF6C20B}">
-  <dimension ref="R5:R6"/>
+  <dimension ref="F2:AE45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R5">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="6" spans="18:18" x14ac:dyDescent="0.25">
-      <c r="R6" t="s">
+    <row r="2" spans="6:27" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F2" s="17" t="s">
         <v>36</v>
       </c>
+      <c r="G2" s="17"/>
+      <c r="Z2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="19"/>
+    </row>
+    <row r="43" spans="7:31" ht="21" x14ac:dyDescent="0.35">
+      <c r="G43" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" s="19"/>
+    </row>
+    <row r="45" spans="7:31" ht="24" x14ac:dyDescent="0.4">
+      <c r="AD45" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE45" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="AD45:AE45"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -800,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8858C0-6DFD-4B7A-8BEC-91283065E68F}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +1387,7 @@
     <col min="7" max="7" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -829,7 +1403,7 @@
       <c r="M1" s="14"/>
       <c r="N1" s="14"/>
     </row>
-    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -845,8 +1419,15 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+    </row>
+    <row r="3" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
@@ -863,7 +1444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -880,7 +1461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -902,7 +1483,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -924,7 +1505,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
@@ -946,7 +1527,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -967,29 +1548,49 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+    <row r="9" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+    <row r="10" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1000,7 +1601,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1011,7 +1612,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1022,7 +1623,7 @@
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1033,7 +1634,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1044,7 +1645,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1129,9 +1730,10 @@
       <c r="D24" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="L2:P2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{CC0F7472-D2DD-484D-8216-07C34383310F}"/>
@@ -1140,8 +1742,206 @@
     <hyperlink ref="E6" r:id="rId4" xr:uid="{183778F0-859D-4901-B02D-B137F164E008}"/>
     <hyperlink ref="E7" r:id="rId5" xr:uid="{C4E12C26-FBDB-41BC-9DFB-DA4C354E8C52}"/>
     <hyperlink ref="E8" r:id="rId6" xr:uid="{1BD7F6EB-81FA-472A-8CBB-F99C2719828F}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{DEA3BAF1-5A85-4CF0-A85C-BAFDC714BFB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId8"/>
+  <drawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FF8204-F453-4BF9-82D2-B1817B6EFC90}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="213.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{BAAE7FCA-8409-41B7-9CE2-2C492E41D4C5}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{7DE001D9-C0A3-418A-A9C2-61CAAA054AE0}"/>
+    <hyperlink ref="E5" r:id="rId3" location="page=11" xr:uid="{81151BF5-2D7F-473F-9AC3-C5C65CA1CA9E}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{6D4E8B8A-D97D-4F4F-8178-6CA6D1CC29BD}"/>
+    <hyperlink ref="E7" r:id="rId5" xr:uid="{02BB316E-8EA6-42F6-9BAB-6256A9F12CBC}"/>
+    <hyperlink ref="E8" r:id="rId6" xr:uid="{5D861E25-DFC3-478F-B647-EE1A7FF4B1C5}"/>
+    <hyperlink ref="E9" r:id="rId7" xr:uid="{64D169B2-BF5E-4BDD-84D9-C497C7A0B0D3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RIcerca_e_citazioni/Ricerca dell'arte.xlsx
+++ b/RIcerca_e_citazioni/Ricerca dell'arte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriele\Monitor\Desktop\TESI\RIcerca_e_citazioni\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CCDE95-1D0A-4369-876F-8D0F8CC2DBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34E08E3-676D-4651-8458-900D18112591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{1DBE052A-2A2F-42A7-95AF-1B1410054FFA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>Stato e ricerca dell'arte- Articoli Scientifici sull'orientamento professionale</t>
   </si>
@@ -185,13 +185,115 @@
   </si>
   <si>
     <t>https://www.sciencedirect.com/science/article/abs/pii/S0022440524000797?via%3Dihub</t>
+  </si>
+  <si>
+    <t>Descrizione</t>
+  </si>
+  <si>
+    <t>Vantaggi</t>
+  </si>
+  <si>
+    <t>Svantaggi</t>
+  </si>
+  <si>
+    <t>Stato e ricerca dell'arte- Applicazioni sull'orientamento professionale</t>
+  </si>
+  <si>
+    <t>CareerGenie: AI Career Manager</t>
+  </si>
+  <si>
+    <t>Coursera:Learn career skills</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'applicazione è ben strutturata e offre percorsi lavorativi diversificati in base alle scelte iniziali dell'utente. In primo luogo, propone i lavori più richiesti in relazione alle conoscenze e agli obiettivi personali, per poi suggerire strategie specifiche a seconda della selezione dell'utente. Inoltre, consente il collegamento a LinkedIn per definire e arricchire il curriculum. </t>
+  </si>
+  <si>
+    <t>l'app presenta un design ben strutturato e chiaro, si può tenere in considerazione il fatto di chiedere all'utente se ha già avuto esperienze lavorative e indicare il reddito medio per un preciso lavoro</t>
+  </si>
+  <si>
+    <t>Il questionario potrebbe risultare troppo dettagliato e questo potrebbe scoraggiare gli utenti nella fase iniziale di utilizzo dell'app. La chatbot cancella automaticamente le conversazioni effettuate</t>
+  </si>
+  <si>
+    <t>L'app raccoglie dati dettagliati consentendo un'ampia scelta di lavori da parte dell'utente.L'app aiuta l'utente a raggiungere il proprio obiettivo tramite dei task giornalieri, fornendo la possibilità ad ognuno di essi di essere supportato tramite una chatbot con l'intelligenza artificiale</t>
+  </si>
+  <si>
+    <t>L'applicazione è improntata sulla selezione di corsi lavorativi offerti sia da aziende private sia da altri professionisti, al fine del quale viene rilasciato un certificato condivisibile con un profilo linkedin</t>
+  </si>
+  <si>
+    <t>Tutti i corsi presenti nell'app sono molto ben strutturati indicando per ogni corso tutto ciò che serve sapere.I corsi presentati sono a pagamento</t>
+  </si>
+  <si>
+    <t>Nella mia applicazione si potrebbe prendere spunto sulla parte dei corsi di formazione andando ad indicare tutto ciò che può servire all'utente, ad esempio indicando che cosa si ottiene dal corso(certificato) e ai lavori che si possono fare.</t>
+  </si>
+  <si>
+    <t>Non viene fatto nessun questionario e non si viene obbligati subito a creare un account per visionare i corsi</t>
+  </si>
+  <si>
+    <t>il Servizio AI mostra che cosa comporterà all'utente se intraprende un preciso lavoro, ossia mostra una panoramica di cosa si occupa quel lavoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questa applicazione fornisce vari servizi tra i quali offre un servizio di AI per rispondere a qualsiasi domanda e molteplici quiz e questionari e inoltre offre la possibilità di interagire con un esperto in materia. </t>
+  </si>
+  <si>
+    <t>l'app possiede una vasta varietà di lavori basata sulle capacità e gli interessi dell'utente fornendo tutto ciò che bisogna sapere per un lavoro, offrendo anche corsi di sviluppo professionale</t>
+  </si>
+  <si>
+    <t>I questionari forniti sono lunghissimi e possono risultare noiosi</t>
+  </si>
+  <si>
+    <t>Aptitude &amp; Career Guidance</t>
+  </si>
+  <si>
+    <t>Career Helper</t>
+  </si>
+  <si>
+    <t>InfoJobs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">App ideale per ricerca di annunci di lavoro, permette la compilazione del proprio CV e l'invio di richieste di colloquio in modo rapido. Presenta inoltre la possibiltà di confronto tra le skill possedute e le skill richieste </t>
+  </si>
+  <si>
+    <t>Una volta definite tutte le possibili skill e consigliato il lavoro più ideale, l'app può mostrare gli annunci di lavoro disponibili più affini al proprio percorso lavorativo</t>
+  </si>
+  <si>
+    <t>Offre la possibilità di confrontare diverse offerte di lavoro in contemporanea in base alle skills dell'utente</t>
+  </si>
+  <si>
+    <t>Il servizio offerto è molto simile a linkedln</t>
+  </si>
+  <si>
+    <t>Linkedln Learning</t>
+  </si>
+  <si>
+    <t>Non vengono effettuati dei test e non viene messo in luce le skills già possedute dall'utente, l'app non consiglia dei lavori in base alle skill</t>
+  </si>
+  <si>
+    <t>l'app è organizzata in tre principali settori, Business, Technology e Creative, ad ognuna di questi vengono mostrate i lavori più richiesti,  indicando per ognuna le skills necessarie da avere per quel lavoro e i corsi di formazione per raggiungerlo</t>
+  </si>
+  <si>
+    <t>Una sezione della famosa app linkedIn, offre la possibilità di ampliare qualsiasi abilità o skill che tu voglia tramite dei corsi al fine dei quali si viene in possesso di certificati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ottimo per identificare i principali lavori di Technology e ad andare a vedere le skill da avere per svolgere quel determinato lavoro, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applicazione presenta la possibilità di poter parlare con un esperto e di svolgere dei test, inoltre mette a disposizione dei grafici con raccomandazione di percorsi lavorativi </t>
+  </si>
+  <si>
+    <t>L'app fornisce un career couseling online con anche una report card, ossia un quadro generale di utti i punti di forza e idee di professione, inoltre fornisce la possibilità di intraprendere dei corsi di formazione</t>
+  </si>
+  <si>
+    <t>l'app ha un design molto semplice, non offre di più di quanto citato prima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si potrebbe andare ad analizzare al meglio il contenuto della report card ed effettuare magari dei grafici </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +380,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -312,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -351,6 +463,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -360,17 +484,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1339,26 +1457,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="6:27" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="Z2" s="19" t="s">
+      <c r="G2" s="15"/>
+      <c r="Z2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AA2" s="19"/>
+      <c r="AA2" s="16"/>
     </row>
     <row r="43" spans="7:31" ht="21" x14ac:dyDescent="0.35">
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H43" s="19"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="45" spans="7:31" ht="24" x14ac:dyDescent="0.4">
-      <c r="AD45" s="20" t="s">
+      <c r="AD45" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AE45" s="20"/>
+      <c r="AE45" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1376,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8858C0-6DFD-4B7A-8BEC-91283065E68F}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1388,20 +1506,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1419,13 +1537,13 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
     </row>
     <row r="3" spans="1:16" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1752,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FF8204-F453-4BF9-82D2-B1817B6EFC90}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,180 +1886,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="A1" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>26</v>
+        <v>75</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>29</v>
+        <v>70</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="114" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>48</v>
+        <v>81</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{BAAE7FCA-8409-41B7-9CE2-2C492E41D4C5}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{7DE001D9-C0A3-418A-A9C2-61CAAA054AE0}"/>
-    <hyperlink ref="E5" r:id="rId3" location="page=11" xr:uid="{81151BF5-2D7F-473F-9AC3-C5C65CA1CA9E}"/>
-    <hyperlink ref="E6" r:id="rId4" xr:uid="{6D4E8B8A-D97D-4F4F-8178-6CA6D1CC29BD}"/>
-    <hyperlink ref="E7" r:id="rId5" xr:uid="{02BB316E-8EA6-42F6-9BAB-6256A9F12CBC}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{5D861E25-DFC3-478F-B647-EE1A7FF4B1C5}"/>
-    <hyperlink ref="E9" r:id="rId7" xr:uid="{64D169B2-BF5E-4BDD-84D9-C497C7A0B0D3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>